--- a/assets/upload/3.a.1.dosen_tetap.xlsx
+++ b/assets/upload/3.a.1.dosen_tetap.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaPulahtaFTUP\Documents\TEMPLATE BORANG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E761510E-7A94-4FA5-8A5D-61225763EFAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dosen" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>KaPulahtaFTUP</author>
     <author>Adm-pulahta</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +104,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0">
+    <comment ref="N1" authorId="2" shapeId="0" xr:uid="{F5E1E0E3-DA1E-4E57-8005-7CF65D9D9D20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+YA
+TIDAK</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0">
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0">
+    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1153,11 +1172,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/upload/3.a.1.dosen_tetap.xlsx
+++ b/assets/upload/3.a.1.dosen_tetap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ridho\xampp7.4.25\htdocs\borangft\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E761510E-7A94-4FA5-8A5D-61225763EFAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75041CC8-FAAE-484F-9084-30C2C3AED1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dosen" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>KaPulahtaFTUP:</t>
         </r>
@@ -44,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 YA
@@ -112,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -121,7 +121,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 YA
@@ -154,38 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adm-pulahta:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Arsitektur s1
-Teknik Sipil S1
-Teknik Mesin S1
-Teknik Industri S1
-Teknik Informatika S1
-Teknik Elektro S1
-Teknik Mesin D3
-Teknik Elektro D3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>npd</t>
   </si>
@@ -233,9 +202,6 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>prodi</t>
   </si>
   <si>
     <t>sertifikasi</t>
@@ -272,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,19 +403,6 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1173,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,11 +1146,10 @@
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="28.140625" customWidth="1"/>
     <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1208,37 +1160,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>5</v>
@@ -1246,11 +1198,8 @@
       <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1267,7 +1216,6 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/upload/3.a.1.dosen_tetap.xlsx
+++ b/assets/upload/3.a.1.dosen_tetap.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ridho\xampp7.4.25\htdocs\borangft\assets\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\borangft\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75041CC8-FAAE-484F-9084-30C2C3AED1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="dosen" sheetId="1" r:id="rId1"/>
@@ -20,14 +19,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>KaPulahtaFTUP</author>
     <author>Adm-pulahta</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="L1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="2" shapeId="0" xr:uid="{F5E1E0E3-DA1E-4E57-8005-7CF65D9D9D20}">
+    <comment ref="N1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="P1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,6 +171,31 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+YA
+TIDAK</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>KaPulahtaFTUP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 YA
@@ -184,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>npd</t>
   </si>
@@ -232,13 +256,16 @@
   </si>
   <si>
     <t>kesesuaian_bidang_keahlian</t>
+  </si>
+  <si>
+    <t>status_forlap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +430,19 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -767,10 +807,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1125,97 +1166,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="28.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="21.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="28.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
